--- a/medicine/Enfance/Dirk_Bracke/Dirk_Bracke.xlsx
+++ b/medicine/Enfance/Dirk_Bracke/Dirk_Bracke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dirk Bracke, né le 4 juin 1953 à Saint-Gilles-Waes en province de Flandre-Orientale et mort le 15 juin 2021[1] à Stekene, est un écrivain belge flamand de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dirk Bracke, né le 4 juin 1953 à Saint-Gilles-Waes en province de Flandre-Orientale et mort le 15 juin 2021 à Stekene, est un écrivain belge flamand de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bracke suit une formation en économie à Saint-Nicolas, en Flandre-Orientale. Il travaille ensuite à la poste et finit par vivre de sa plume.
 En seize ans, il a vendu plus de 300 000 livres. Son œuvre est traduite en danois, allemand, espagnol et polonais.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1993 : Steen (Davidsfonds)
 1994 : Blauw is Bitter (Davidsfonds/Infodok)
@@ -609,7 +625,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1995 : Amsterdamse Jeugdjury pour Blauw is bitter
 1996 : Kinder- en Jeugdjury pour Een vlieg op de muur
